--- a/NformTester/NformTester/Keywordscripts/600.20.20.90_ConfiureActionShutDownActionwithoutShutdownClientpermission.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.90_ConfiureActionShutDownActionwithoutShutdownClientpermission.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3640,10 +3640,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Add shut down clients</t>
   </si>
   <si>
@@ -3760,6 +3756,10 @@
   </si>
   <si>
     <t>"{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3995,35 +3995,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4748,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4883,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4914,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4976,7 +4948,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>2</v>
@@ -5040,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="20"/>
@@ -5073,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="20"/>
@@ -5102,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="20"/>
@@ -5191,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="5"/>
@@ -5222,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="5"/>
@@ -5253,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="5"/>
@@ -5330,7 +5302,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="20"/>
@@ -5425,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5546,16 +5518,16 @@
         <v>780</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>256</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>813</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>814</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="b">
@@ -5574,13 +5546,13 @@
         <v>780</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>798</v>
@@ -5602,16 +5574,16 @@
         <v>780</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="b">
@@ -5630,16 +5602,16 @@
         <v>780</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="b">
@@ -5658,16 +5630,16 @@
         <v>780</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>257</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="b">
@@ -5686,16 +5658,16 @@
         <v>780</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="b">
@@ -5714,16 +5686,16 @@
         <v>780</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>260</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5740,16 +5712,16 @@
         <v>780</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>261</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5766,16 +5738,16 @@
         <v>780</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5792,16 +5764,16 @@
         <v>780</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>262</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5818,7 +5790,7 @@
         <v>780</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>263</v>
@@ -5827,7 +5799,7 @@
         <v>13</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5844,7 +5816,7 @@
         <v>780</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>265</v>
@@ -5868,7 +5840,7 @@
         <v>780</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>266</v>
@@ -5892,7 +5864,7 @@
         <v>780</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>267</v>
@@ -5916,7 +5888,7 @@
         <v>780</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>268</v>
@@ -5940,7 +5912,7 @@
         <v>780</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>269</v>
@@ -5964,13 +5936,13 @@
         <v>780</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F43" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="5"/>
@@ -6009,7 +5981,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -6075,7 +6047,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>0</v>
@@ -6085,10 +6057,10 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -6304,7 +6276,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -6336,7 +6308,7 @@
         <v>799</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -6406,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -6431,10 +6403,10 @@
         <v>7</v>
       </c>
       <c r="H62" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="I62" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>829</v>
       </c>
       <c r="J62" s="20" t="b">
         <v>1</v>
@@ -6518,7 +6490,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -6581,7 +6553,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>0</v>
@@ -6591,13 +6563,13 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>832</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>833</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -6608,7 +6580,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>197</v>
@@ -6660,7 +6632,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>2</v>
@@ -6689,7 +6661,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6737,7 +6709,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -6854,7 +6826,7 @@
         <v>56</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -6948,7 +6920,7 @@
         <v>56</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -7017,328 +6989,27 @@
       <c r="L87" s="5"/>
       <c r="M87" s="20"/>
     </row>
-    <row r="88" spans="3:13">
-      <c r="C88" s="5">
-        <v>87</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="20"/>
-    </row>
-    <row r="89" spans="3:13">
-      <c r="C89" s="5">
-        <v>88</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="20"/>
-    </row>
-    <row r="90" spans="3:13">
-      <c r="C90" s="5">
-        <v>89</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="20"/>
-    </row>
-    <row r="91" spans="3:13">
-      <c r="C91" s="5">
-        <v>90</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="20"/>
-    </row>
-    <row r="92" spans="3:13">
-      <c r="C92" s="5">
-        <v>91</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="20"/>
-    </row>
-    <row r="93" spans="3:13">
-      <c r="C93" s="5">
-        <v>92</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="20"/>
-    </row>
-    <row r="94" spans="3:13">
-      <c r="C94" s="5">
-        <v>93</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="20"/>
-    </row>
-    <row r="95" spans="3:13">
-      <c r="C95" s="5">
-        <v>94</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="20"/>
-    </row>
-    <row r="96" spans="3:13">
-      <c r="C96" s="5">
-        <v>95</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="20"/>
-    </row>
-    <row r="97" spans="3:13">
-      <c r="C97" s="5">
-        <v>96</v>
-      </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="5"/>
-      <c r="M97" s="20"/>
-    </row>
-    <row r="98" spans="3:13">
-      <c r="C98" s="5">
-        <v>97</v>
-      </c>
-      <c r="M98" s="20"/>
-    </row>
-    <row r="99" spans="3:13">
-      <c r="C99" s="5">
-        <v>98</v>
-      </c>
-      <c r="M99" s="20"/>
-    </row>
-    <row r="100" spans="3:13">
-      <c r="C100" s="5">
-        <v>99</v>
-      </c>
-      <c r="M100" s="20"/>
-    </row>
-    <row r="101" spans="3:13">
-      <c r="C101" s="5">
-        <v>100</v>
-      </c>
-      <c r="M101" s="20"/>
-    </row>
-    <row r="102" spans="3:13">
-      <c r="C102" s="5">
-        <v>101</v>
-      </c>
-      <c r="M102" s="20"/>
-    </row>
-    <row r="103" spans="3:13">
-      <c r="C103" s="5">
-        <v>102</v>
-      </c>
-      <c r="M103" s="20"/>
-    </row>
-    <row r="104" spans="3:13">
-      <c r="C104" s="5">
-        <v>103</v>
-      </c>
-      <c r="M104" s="20"/>
-    </row>
-    <row r="105" spans="3:13">
-      <c r="C105" s="5">
-        <v>104</v>
-      </c>
-      <c r="M105" s="20"/>
-    </row>
-    <row r="106" spans="3:13">
-      <c r="C106" s="5">
-        <v>105</v>
-      </c>
-      <c r="M106" s="20"/>
-    </row>
-    <row r="107" spans="3:13">
-      <c r="C107" s="5">
-        <v>106</v>
-      </c>
-      <c r="M107" s="20"/>
-    </row>
-    <row r="108" spans="3:13">
-      <c r="C108" s="5">
-        <v>107</v>
-      </c>
-      <c r="M108" s="20"/>
-    </row>
-    <row r="109" spans="3:13">
-      <c r="C109" s="5">
-        <v>108</v>
-      </c>
-      <c r="M109" s="20"/>
-    </row>
-    <row r="110" spans="3:13">
-      <c r="C110" s="5">
-        <v>109</v>
-      </c>
-      <c r="M110" s="20"/>
-    </row>
-    <row r="111" spans="3:13">
-      <c r="C111" s="5">
-        <v>110</v>
-      </c>
-      <c r="M111" s="20"/>
-    </row>
-    <row r="112" spans="3:13">
-      <c r="C112" s="5">
-        <v>111</v>
-      </c>
-      <c r="M112" s="20"/>
-    </row>
-    <row r="113" spans="3:13">
-      <c r="C113" s="5">
-        <v>112</v>
-      </c>
-      <c r="M113" s="20"/>
-    </row>
-    <row r="114" spans="3:13">
-      <c r="C114" s="5">
-        <v>113</v>
-      </c>
-      <c r="M114" s="20"/>
-    </row>
-    <row r="115" spans="3:13">
-      <c r="C115" s="5">
-        <v>114</v>
-      </c>
-      <c r="M115" s="20"/>
-    </row>
-    <row r="116" spans="3:13">
-      <c r="C116" s="5">
-        <v>115</v>
-      </c>
-      <c r="M116" s="20"/>
-    </row>
-    <row r="117" spans="3:13">
-      <c r="C117" s="5">
-        <v>116</v>
-      </c>
-      <c r="M117" s="20"/>
-    </row>
-    <row r="118" spans="3:13">
-      <c r="C118" s="5">
-        <v>117</v>
-      </c>
-      <c r="M118" s="20"/>
-    </row>
-    <row r="119" spans="3:13">
-      <c r="C119" s="5">
-        <v>118</v>
-      </c>
-      <c r="M119" s="20"/>
-    </row>
-    <row r="120" spans="3:13">
-      <c r="C120" s="5">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N55">
-    <cfRule type="cellIs" dxfId="5" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N55 N57:N58 N62">
+    <cfRule type="cellIs" dxfId="1" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N58">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18 D44 D20:D26 D46:D65 D67:D96 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18 D3:D4 D67:D87 D46:D65 D20:D26 D44">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G87">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F87">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E87">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
